--- a/src/Chinese wall/Import/CW_check - Template.xlsx
+++ b/src/Chinese wall/Import/CW_check - Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WZHARBC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WZHARBC\Documents\repos\monthly_tasks\src\Chinese wall\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37D5FA-E5F3-4B2C-B0DB-49E8C4F1C6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AA801-2B3C-4E49-9EFC-5AAA62AFA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28F8725F-EB40-496F-8BA0-68FD3C4454F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{28F8725F-EB40-496F-8BA0-68FD3C4454F9}"/>
   </bookViews>
   <sheets>
     <sheet name="CW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="100">
   <si>
     <t>ws</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>COSME_RLRO_2019_NR</t>
+  </si>
+  <si>
+    <t>ROOF_CORP_2022_HR_NR, ROOF_HUNGARY_2O22_1, ROOF_RBRO_2022_NR</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,9 +470,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -487,382 +488,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA6A6A6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2189,7 +1815,7 @@
     <dataField name="Count of securitized" fld="2" subtotal="count" baseField="3" baseItem="8"/>
   </dataFields>
   <formats count="52">
-    <format dxfId="103">
+    <format dxfId="51">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2204,7 +1830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="50">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2219,7 +1845,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2234,7 +1860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="48">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2249,7 +1875,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2264,7 +1890,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="46">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2279,7 +1905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="45">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2294,7 +1920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2309,7 +1935,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2324,7 +1950,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="2" selected="0">
@@ -2340,7 +1966,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="2" selected="0">
@@ -2356,7 +1982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="40">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="2" selected="0">
@@ -2372,7 +1998,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="2" selected="0">
@@ -2388,7 +2014,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="38">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="3" selected="0">
@@ -2406,7 +2032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2425,7 +2051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2444,7 +2070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2464,7 +2090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2485,7 +2111,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2503,7 +2129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2522,7 +2148,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2543,7 +2169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2562,7 +2188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="29">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="4" selected="0">
@@ -2580,7 +2206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="3" selected="0">
@@ -2598,7 +2224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2613,7 +2239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2629,7 +2255,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2645,7 +2271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2657,7 +2283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="23">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2672,7 +2298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2687,7 +2313,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2703,7 +2329,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2715,7 +2341,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2731,7 +2357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2743,7 +2369,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2760,7 +2386,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2775,7 +2401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2787,7 +2413,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2803,7 +2429,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="3" selected="0">
@@ -2820,7 +2446,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2835,7 +2461,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="3" selected="0">
@@ -2852,7 +2478,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="3" selected="0">
@@ -2869,7 +2495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="3" selected="0">
@@ -2886,7 +2512,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="3" selected="0">
@@ -2903,7 +2529,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="2" selected="0">
@@ -2920,7 +2546,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2935,7 +2561,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2950,7 +2576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2965,7 +2591,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -2980,7 +2606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="2" selected="0">
@@ -2996,7 +2622,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="2" selected="0">
@@ -3012,7 +2638,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -3340,100 +2966,100 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="56" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
     <col min="16" max="16" width="30" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
@@ -3452,17 +3078,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3473,43 +3099,43 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10" t="s">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -3519,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="Q6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>1</v>
       </c>
       <c r="S6" s="7"/>
@@ -3536,17 +3162,17 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -3560,36 +3186,32 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="8">
+        <v>99</v>
+      </c>
+      <c r="R7" s="7">
         <v>1</v>
       </c>
       <c r="S7" s="7">
         <v>1</v>
       </c>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7">
-        <v>1</v>
-      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3600,19 +3222,37 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -3622,27 +3262,21 @@
         <v>1</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="3"/>
-      <c r="Q9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -3652,29 +3286,29 @@
         <v>1</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="3"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="15" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>81</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -3687,24 +3321,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="Q11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="15" t="s">
+      <c r="Q11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -3717,24 +3351,24 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="Q12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="15" t="s">
+      <c r="Q12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -3747,24 +3381,24 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="Q13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="15" t="s">
+      <c r="Q13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3775,19 +3409,24 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -3797,22 +3436,21 @@
         <v>1</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -3822,21 +3460,21 @@
         <v>1</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -3846,21 +3484,21 @@
         <v>1</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -3874,17 +3512,17 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -3898,17 +3536,17 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -3922,17 +3560,17 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -3947,17 +3585,17 @@
       <c r="L21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>76</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -3972,17 +3610,17 @@
       <c r="L22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -3997,17 +3635,17 @@
       <c r="L23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -4022,17 +3660,17 @@
       <c r="L24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>53</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -4047,17 +3685,17 @@
       <c r="L25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -4077,17 +3715,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4103,17 +3741,17 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -4125,17 +3763,17 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -4147,21 +3785,21 @@
       <c r="I29" s="6">
         <v>1</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>75</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4173,22 +3811,22 @@
       <c r="I30" s="6">
         <v>1</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="3"/>
-      <c r="P30" s="18"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -4203,19 +3841,19 @@
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="P31" s="18"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -4230,19 +3868,19 @@
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="P32" s="18"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -4257,19 +3895,19 @@
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="P33" s="18"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>71</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -4290,19 +3928,19 @@
       <c r="L34" s="3">
         <v>1</v>
       </c>
-      <c r="P34" s="18"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -4313,19 +3951,19 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="P35" s="18"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="16" t="s">
         <v>70</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -4344,19 +3982,19 @@
       <c r="L36" s="3">
         <v>1</v>
       </c>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="16" t="s">
         <v>82</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -4371,19 +4009,19 @@
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="P37" s="18"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -4396,19 +4034,19 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="P38" s="18"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -4419,19 +4057,19 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="P39" s="18"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="16" t="s">
         <v>86</v>
       </c>
       <c r="G40" s="5" t="s">
@@ -4443,22 +4081,22 @@
       <c r="I40" s="6">
         <v>1</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="3"/>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>87</v>
       </c>
       <c r="G41" s="5" t="s">
@@ -4470,22 +4108,22 @@
       <c r="I41" s="6">
         <v>1</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="3"/>
-      <c r="P41" s="18"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="16" t="s">
         <v>88</v>
       </c>
       <c r="G42" s="5" t="s">
@@ -4498,19 +4136,19 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="P42" s="18"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="16" t="s">
         <v>78</v>
       </c>
       <c r="G43" s="5" t="s">
@@ -4523,19 +4161,19 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="P43" s="18"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="16" t="s">
         <v>89</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -4546,19 +4184,19 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="P44" s="18"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>91</v>
       </c>
       <c r="G45" s="5" t="s">
@@ -4568,22 +4206,22 @@
         <v>1</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="3"/>
-      <c r="P45" s="18"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="18" t="s">
+      <c r="C46" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -4596,19 +4234,19 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="P46" s="18"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="18" t="s">
+      <c r="C47" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>93</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -4619,19 +4257,19 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="C48" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>94</v>
       </c>
       <c r="G48" s="5" t="s">
@@ -4641,22 +4279,22 @@
         <v>1</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="3"/>
-      <c r="P48" s="18"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="5" t="s">
@@ -4666,22 +4304,22 @@
         <v>1</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="3"/>
-      <c r="P49" s="18"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="18" t="s">
+      <c r="C50" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>96</v>
       </c>
       <c r="G50" s="5" t="s">
@@ -4694,19 +4332,19 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="P50" s="18"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="C51" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -4719,19 +4357,19 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="P51" s="18"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P51" s="16"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="C52" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G52" s="5" t="s">
@@ -4744,19 +4382,19 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="P52" s="18"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P52" s="16"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>98</v>
       </c>
       <c r="G53" s="5" t="s">
@@ -4769,19 +4407,19 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="P53" s="18"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P53" s="16"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="18" t="s">
+      <c r="C54" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>48</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -4792,19 +4430,19 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="P54" s="18"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -4814,22 +4452,22 @@
         <v>1</v>
       </c>
       <c r="I55" s="3"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="3"/>
-      <c r="P55" s="18"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -4840,19 +4478,19 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="P56" s="18"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P56" s="16"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -4862,22 +4500,22 @@
         <v>1</v>
       </c>
       <c r="I57" s="3"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="3"/>
-      <c r="P57" s="18"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P57" s="16"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="C58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>75</v>
       </c>
       <c r="G58" s="5" t="s">
@@ -4890,19 +4528,19 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="P58" s="18"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P58" s="16"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="C59" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G59" s="4" t="s">
@@ -4923,194 +4561,194 @@
       <c r="L59" s="3">
         <v>3</v>
       </c>
-      <c r="P59" s="18"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P59" s="16"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="18" t="s">
+      <c r="C60" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="P60" s="18"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P60" s="16"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P61" s="18"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P61" s="16"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="18" t="s">
+      <c r="C62" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P62" s="18"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P62" s="16"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="18" t="s">
+      <c r="C63" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P63" s="18"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="18" t="s">
+      <c r="C64" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="P64" s="18"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P64" s="16"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P65" s="18"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P65" s="16"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="18" t="s">
+      <c r="C66" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P66" s="18"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P66" s="16"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="18" t="s">
+      <c r="C67" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="P67" s="18"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P67" s="16"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P68" s="18"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="P69" s="18"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="P70" s="18"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="P71" s="18"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="P72" s="18"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="P73" s="18"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+      <c r="P68" s="16"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="P70" s="16"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="P71" s="16"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="P72" s="16"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="P73" s="16"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
       <c r="G74" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
       <c r="G75" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
         <v>62</v>
@@ -5119,10 +4757,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
         <v>63</v>
@@ -5132,10 +4770,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
         <v>64</v>
@@ -5145,10 +4783,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
       <c r="H79" s="1" t="s">
         <v>65</v>
       </c>
@@ -5157,10 +4795,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
         <v>66</v>
@@ -5170,10 +4808,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
         <v>67</v>
@@ -5183,10 +4821,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
       <c r="H82" s="1" t="s">
         <v>68</v>
       </c>
@@ -5195,7 +4833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H83" s="1" t="s">
         <v>69</v>
       </c>
@@ -5204,42 +4842,42 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G84" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G85" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G86" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G87" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G88" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G89" s="1" t="s">
         <v>43</v>
       </c>
@@ -5252,6 +4890,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Gruppe xmlns="86cedade-ebff-4b8d-b2a3-faad7f3c3397">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Gruppe>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100744D2F48F15A9F42AB29E4A68231D9A4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="076da6730c833006e4daab9ba0d81abb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="86cedade-ebff-4b8d-b2a3-faad7f3c3397" xmlns:ns3="916002f9-0322-485a-9445-426815c01027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df2694061866efa02c56035bac5f9ae1" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5505,32 +5168,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA003BC-8A43-4088-A486-A3327AB89D31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="916002f9-0322-485a-9445-426815c01027"/>
+    <ds:schemaRef ds:uri="86cedade-ebff-4b8d-b2a3-faad7f3c3397"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Gruppe xmlns="86cedade-ebff-4b8d-b2a3-faad7f3c3397">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Gruppe>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6A3DD9-A393-474B-8508-3F40507D28E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF533D6-B144-4ECA-9EA2-FEA5FE866A02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5548,30 +5212,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6A3DD9-A393-474B-8508-3F40507D28E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA003BC-8A43-4088-A486-A3327AB89D31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="916002f9-0322-485a-9445-426815c01027"/>
-    <ds:schemaRef ds:uri="86cedade-ebff-4b8d-b2a3-faad7f3c3397"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/Chinese wall/Import/CW_check - Template.xlsx
+++ b/src/Chinese wall/Import/CW_check - Template.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WZHARBC\Documents\repos\monthly_tasks\src\Chinese wall\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9AA801-2B3C-4E49-9EFC-5AAA62AFA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD84B5A9-98A4-4026-A71F-8F4103346034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{28F8725F-EB40-496F-8BA0-68FD3C4454F9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="102">
   <si>
     <t>ws</t>
   </si>
@@ -119,9 +119,6 @@
     <t>COSME_RBBG_2016_NR</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>JE1_BG_NR</t>
   </si>
   <si>
@@ -339,6 +336,15 @@
   </si>
   <si>
     <t>ROOF_CORP_2022_HR_NR, ROOF_HUNGARY_2O22_1, ROOF_RBRO_2022_NR</t>
+  </si>
+  <si>
+    <t>Other "NR"</t>
+  </si>
+  <si>
+    <t>Other "RE"</t>
+  </si>
+  <si>
+    <t>1 only for: ROOF_CORP_2021_RBIAG_NR, ROOF_CORP_2022_RBIAG_NR, ROOF_CRE_2019_RBIAG_NR</t>
   </si>
 </sst>
 </file>
@@ -2963,11 +2969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFB7FDD-A7E8-44C8-BEBA-605CAE21C641}">
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:AC89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="56" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3034,7 +3040,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>6</v>
@@ -3051,13 +3057,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>11</v>
@@ -3083,16 +3089,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3130,16 +3136,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3167,16 +3173,16 @@
         <v>15</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -3186,7 +3192,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R7" s="7">
         <v>1</v>
@@ -3206,13 +3212,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
@@ -3223,7 +3229,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="R8" s="7">
         <v>1</v>
@@ -3247,13 +3253,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
@@ -3265,19 +3271,34 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="3"/>
+      <c r="Q9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>10</v>
@@ -3291,28 +3312,24 @@
       <c r="L10" s="3"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3322,10 +3339,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="Q11" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -3342,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3352,10 +3369,10 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="Q12" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -3372,7 +3389,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3382,10 +3399,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="Q13" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -3399,7 +3416,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>22</v>
@@ -3410,10 +3427,10 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="Q14" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -3427,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>23</v>
@@ -3439,6 +3456,12 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="3"/>
+      <c r="Q15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3451,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>25</v>
@@ -3464,7 +3487,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3475,10 +3498,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3488,7 +3511,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3499,10 +3522,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -3511,8 +3534,13 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AC18" s="16"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3526,7 +3554,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -3535,8 +3563,13 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AC19" s="16"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3550,7 +3583,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -3559,8 +3592,13 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AC20" s="16"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3571,10 +3609,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -3583,9 +3621,13 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3596,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -3608,9 +3650,13 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AC22" s="16"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3621,10 +3667,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -3633,9 +3679,13 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AC23" s="16"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3646,10 +3696,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -3658,9 +3708,13 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AC24" s="16"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3671,10 +3725,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -3683,9 +3737,13 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AC25" s="16"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3696,10 +3754,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -3714,8 +3772,13 @@
       <c r="L26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AC26" s="16"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3726,10 +3789,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3740,8 +3803,13 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AC27" s="16"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3752,18 +3820,23 @@
         <v>5</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AC28" s="16"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3774,10 +3847,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -3788,22 +3861,24 @@
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -3815,22 +3890,24 @@
       <c r="K30" s="19"/>
       <c r="L30" s="3"/>
       <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q30" s="12"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="G31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -3843,21 +3920,21 @@
       <c r="L31" s="3"/>
       <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -3875,16 +3952,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -3902,16 +3979,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3935,16 +4012,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3958,16 +4035,16 @@
         <v>12</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -3989,16 +4066,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -4016,16 +4093,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="3">
         <v>5</v>
@@ -4041,16 +4118,16 @@
         <v>12</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -4064,16 +4141,16 @@
         <v>12</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -4091,16 +4168,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -4118,16 +4195,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -4143,16 +4220,16 @@
         <v>12</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -4168,16 +4245,16 @@
         <v>12</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -4191,16 +4268,16 @@
         <v>12</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>91</v>
-      </c>
       <c r="G45" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -4216,16 +4293,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -4241,16 +4318,16 @@
         <v>12</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -4264,16 +4341,16 @@
         <v>12</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4289,16 +4366,16 @@
         <v>12</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
@@ -4314,16 +4391,16 @@
         <v>12</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
@@ -4339,16 +4416,16 @@
         <v>12</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="G51" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -4364,16 +4441,16 @@
         <v>12</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
@@ -4389,16 +4466,16 @@
         <v>12</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>98</v>
-      </c>
       <c r="G53" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
@@ -4414,16 +4491,16 @@
         <v>12</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -4437,16 +4514,16 @@
         <v>12</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4462,16 +4539,16 @@
         <v>12</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -4485,16 +4562,16 @@
         <v>12</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -4510,16 +4587,16 @@
         <v>13</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -4535,16 +4612,16 @@
         <v>13</v>
       </c>
       <c r="B59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="G59" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59" s="3">
         <v>48</v>
@@ -4568,13 +4645,13 @@
         <v>13</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P60" s="16"/>
     </row>
@@ -4583,13 +4660,13 @@
         <v>13</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P61" s="16"/>
     </row>
@@ -4598,13 +4675,13 @@
         <v>13</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P62" s="16"/>
     </row>
@@ -4619,7 +4696,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P63" s="16"/>
     </row>
@@ -4628,13 +4705,13 @@
         <v>14</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P64" s="16"/>
     </row>
@@ -4643,13 +4720,13 @@
         <v>14</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P65" s="16"/>
     </row>
@@ -4664,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P66" s="16"/>
     </row>
@@ -4673,13 +4750,13 @@
         <v>17</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P67" s="16"/>
     </row>
@@ -4688,13 +4765,13 @@
         <v>17</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P68" s="16"/>
     </row>
@@ -4733,7 +4810,7 @@
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="G74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -4741,7 +4818,7 @@
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="G75" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H75" s="1"/>
     </row>
@@ -4751,10 +4828,10 @@
       <c r="D76" s="16"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -4763,11 +4840,11 @@
       <c r="D77" s="16"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I77" s="1"/>
       <c r="L77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -4776,11 +4853,11 @@
       <c r="D78" s="16"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I78" s="1"/>
       <c r="L78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -4788,11 +4865,11 @@
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="H79" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I79" s="1"/>
       <c r="L79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -4801,11 +4878,11 @@
       <c r="D80" s="16"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I80" s="1"/>
       <c r="L80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -4814,11 +4891,11 @@
       <c r="D81" s="16"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I81" s="1"/>
       <c r="L81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -4826,60 +4903,60 @@
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="H82" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I82" s="1"/>
       <c r="L82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H83" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I83" s="1"/>
       <c r="L83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G85" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G86" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G87" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G88" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G89" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4890,31 +4967,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Gruppe xmlns="86cedade-ebff-4b8d-b2a3-faad7f3c3397">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Gruppe>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100744D2F48F15A9F42AB29E4A68231D9A4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="076da6730c833006e4daab9ba0d81abb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="86cedade-ebff-4b8d-b2a3-faad7f3c3397" xmlns:ns3="916002f9-0322-485a-9445-426815c01027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df2694061866efa02c56035bac5f9ae1" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5168,33 +5220,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA003BC-8A43-4088-A486-A3327AB89D31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="916002f9-0322-485a-9445-426815c01027"/>
-    <ds:schemaRef ds:uri="86cedade-ebff-4b8d-b2a3-faad7f3c3397"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6A3DD9-A393-474B-8508-3F40507D28E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Gruppe xmlns="86cedade-ebff-4b8d-b2a3-faad7f3c3397">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Gruppe>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF533D6-B144-4ECA-9EA2-FEA5FE866A02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5212,4 +5263,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6A3DD9-A393-474B-8508-3F40507D28E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA003BC-8A43-4088-A486-A3327AB89D31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="916002f9-0322-485a-9445-426815c01027"/>
+    <ds:schemaRef ds:uri="86cedade-ebff-4b8d-b2a3-faad7f3c3397"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>